--- a/Conditional Formatting.xlsx
+++ b/Conditional Formatting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janhavi Mane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73305B05-8100-4D89-8458-A1366EA6BED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0722A7ED-A9A5-43ED-9CA8-2C3CE19FCC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{13CFADE3-C955-44E0-BD54-FBF14EDF6A6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{13CFADE3-C955-44E0-BD54-FBF14EDF6A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -157,13 +171,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -171,7 +178,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -185,27 +234,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -213,13 +241,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -227,6 +248,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -234,90 +262,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -633,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963724D5-9B4C-4A4D-B398-729A56AF8452}">
   <dimension ref="A3:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,20 +717,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="16" priority="3">
+      <formula>D2&gt;=150</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>"D≥150"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>D2&gt;=150</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
-      <formula>D2&gt;=150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D11">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2&gt;=150</formula>
     </cfRule>
   </conditionalFormatting>
@@ -937,12 +877,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D9">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$A1="Product A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>"D≥150"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1092,14 +1032,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>AND(MONTH(C2)=1,YEAR(C2)=2024)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>"D≥150"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(MONTH(C2)=1,YEAR(C2)=2024)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66553542-2E1B-4F7D-93B0-4BF3BF98614A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1249,13 +1189,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>"D≥150"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="top10" dxfId="10" priority="1" rank="3"/>
-    <cfRule type="top10" dxfId="9" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1404,27 +1344,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>"D≥150"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND($A6 = "Product B", $B6 = "North")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND($A6="Product B", $B6="North")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND($A1="Product B", $B6="North")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND($A1="Product B", $B1="North")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND($A1="Product B", $B1="North")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>AND($A1="Product B", $B1="North")</formula>
     </cfRule>
   </conditionalFormatting>
